--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.07928463886133721</v>
+        <v>-0.2902542872142831</v>
       </c>
       <c r="C2">
-        <v>0.1453606936229154</v>
+        <v>0.4474900817361138</v>
       </c>
       <c r="D2">
-        <v>0.04436607603311083</v>
+        <v>0.3638477001211933</v>
       </c>
       <c r="E2">
-        <v>0.2106325616639337</v>
+        <v>0.6031978946591187</v>
       </c>
       <c r="F2">
-        <v>0.2025074184837405</v>
+        <v>0.5487329520217746</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0902513193058618</v>
+        <v>-0.08670396990747065</v>
       </c>
       <c r="C3">
-        <v>0.167985432185332</v>
+        <v>0.4011283099121256</v>
       </c>
       <c r="D3">
-        <v>0.05015032099306407</v>
+        <v>0.2437355075710951</v>
       </c>
       <c r="E3">
-        <v>0.2239426734525246</v>
+        <v>0.4936957641818442</v>
       </c>
       <c r="F3">
-        <v>0.2133200382516062</v>
+        <v>0.5123127616487798</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0807591144842725</v>
+        <v>-0.2842180920556761</v>
       </c>
       <c r="C4">
-        <v>0.1652694113662287</v>
+        <v>0.4543513181817999</v>
       </c>
       <c r="D4">
-        <v>0.04966614468547164</v>
+        <v>0.2495528846253024</v>
       </c>
       <c r="E4">
-        <v>0.2228590242405984</v>
+        <v>0.4995526845341764</v>
       </c>
       <c r="F4">
-        <v>0.2169476940224519</v>
+        <v>0.4500306133234053</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.1234462692904401</v>
+        <v>-0.2239409044200031</v>
       </c>
       <c r="C5">
-        <v>0.1411018504307595</v>
+        <v>0.5803388081800324</v>
       </c>
       <c r="D5">
-        <v>0.03841739416406204</v>
+        <v>0.3869426609522694</v>
       </c>
       <c r="E5">
-        <v>0.1960035565087074</v>
+        <v>0.6220471533189983</v>
       </c>
       <c r="F5">
-        <v>0.1596754647357183</v>
+        <v>0.8207230132996398</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>-0.1461383295373641</v>
-      </c>
-      <c r="C6">
-        <v>0.1461383295373641</v>
-      </c>
-      <c r="D6">
-        <v>0.04157567195853128</v>
-      </c>
-      <c r="E6">
-        <v>0.2039011328034528</v>
-      </c>
-      <c r="F6">
-        <v>0.1498861071264151</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>-0.106837730047734</v>
-      </c>
-      <c r="C7">
-        <v>0.106837730047734</v>
-      </c>
-      <c r="D7">
-        <v>0.01272054408859606</v>
-      </c>
-      <c r="E7">
-        <v>0.1127853895174196</v>
-      </c>
-      <c r="F7">
-        <v>0.03903781219942413</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>-0.1197162766810033</v>
-      </c>
-      <c r="C8">
-        <v>0.1197162766810033</v>
-      </c>
-      <c r="D8">
-        <v>0.01549760857489552</v>
-      </c>
-      <c r="E8">
-        <v>0.1244893914150741</v>
-      </c>
-      <c r="F8">
-        <v>0.03942286430542528</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>-0.1405747196670342</v>
-      </c>
-      <c r="C9">
-        <v>0.1405747196670342</v>
-      </c>
-      <c r="D9">
-        <v>0.01976125180946525</v>
-      </c>
-      <c r="E9">
-        <v>0.1405747196670342</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2902542872142831</v>
+        <v>-0.06582034044206071</v>
       </c>
       <c r="C2">
-        <v>0.4474900817361138</v>
+        <v>0.2316970354585097</v>
       </c>
       <c r="D2">
-        <v>0.3638477001211933</v>
+        <v>0.09010395069034252</v>
       </c>
       <c r="E2">
-        <v>0.6031978946591187</v>
+        <v>0.3001732011528386</v>
       </c>
       <c r="F2">
-        <v>0.5487329520217746</v>
+        <v>0.3039234302155817</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.08670396990747065</v>
+        <v>0.04030545542864885</v>
       </c>
       <c r="C3">
-        <v>0.4011283099121256</v>
+        <v>0.117135837796785</v>
       </c>
       <c r="D3">
-        <v>0.2437355075710951</v>
+        <v>0.03941846264558947</v>
       </c>
       <c r="E3">
-        <v>0.4936957641818442</v>
+        <v>0.1985408336982331</v>
       </c>
       <c r="F3">
-        <v>0.5123127616487798</v>
+        <v>0.2049225677834833</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.2842180920556761</v>
+        <v>0.04535421744014654</v>
       </c>
       <c r="C4">
-        <v>0.4543513181817999</v>
+        <v>0.1574291855501446</v>
       </c>
       <c r="D4">
-        <v>0.2495528846253024</v>
+        <v>0.05660956138547054</v>
       </c>
       <c r="E4">
-        <v>0.4995526845341764</v>
+        <v>0.2379276389692264</v>
       </c>
       <c r="F4">
-        <v>0.4500306133234053</v>
+        <v>0.2558575142829206</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.2239409044200031</v>
+        <v>-0.03121797845395477</v>
       </c>
       <c r="C5">
-        <v>0.5803388081800324</v>
+        <v>0.03121797845395477</v>
       </c>
       <c r="D5">
-        <v>0.3869426609522694</v>
+        <v>0.001408506301122686</v>
       </c>
       <c r="E5">
-        <v>0.6220471533189983</v>
+        <v>0.03753007195733424</v>
       </c>
       <c r="F5">
-        <v>0.8207230132996398</v>
+        <v>0.02945994305395383</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06582034044206071</v>
+        <v>0.05196931671885517</v>
       </c>
       <c r="C2">
-        <v>0.2316970354585097</v>
+        <v>0.3991410673987694</v>
       </c>
       <c r="D2">
-        <v>0.09010395069034252</v>
+        <v>0.2869008173019949</v>
       </c>
       <c r="E2">
-        <v>0.3001732011528386</v>
+        <v>0.5356312325677013</v>
       </c>
       <c r="F2">
-        <v>0.3039234302155817</v>
+        <v>0.5389949565091068</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.04030545542864885</v>
+        <v>0.0685104798962201</v>
       </c>
       <c r="C3">
-        <v>0.117135837796785</v>
+        <v>0.3405816180034244</v>
       </c>
       <c r="D3">
-        <v>0.03941846264558947</v>
+        <v>0.2647655185537202</v>
       </c>
       <c r="E3">
-        <v>0.1985408336982331</v>
+        <v>0.5145537081332912</v>
       </c>
       <c r="F3">
-        <v>0.2049225677834833</v>
+        <v>0.5157349669825785</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04535421744014654</v>
+        <v>0.07237991435715786</v>
       </c>
       <c r="C4">
-        <v>0.1574291855501446</v>
+        <v>0.3370837689345372</v>
       </c>
       <c r="D4">
-        <v>0.05660956138547054</v>
+        <v>0.229038519978335</v>
       </c>
       <c r="E4">
-        <v>0.2379276389692264</v>
+        <v>0.4785796903111696</v>
       </c>
       <c r="F4">
-        <v>0.2558575142829206</v>
+        <v>0.4785439493058998</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.03121797845395477</v>
+        <v>0.04585234341813907</v>
       </c>
       <c r="C5">
-        <v>0.03121797845395477</v>
+        <v>0.3032187278437861</v>
       </c>
       <c r="D5">
-        <v>0.001408506301122686</v>
+        <v>0.210527925762667</v>
       </c>
       <c r="E5">
-        <v>0.03753007195733424</v>
+        <v>0.4588332221653822</v>
       </c>
       <c r="F5">
-        <v>0.02945994305395383</v>
+        <v>0.4619393899566127</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.06289069381529726</v>
+      </c>
+      <c r="C6">
+        <v>0.3154316953120433</v>
+      </c>
+      <c r="D6">
+        <v>0.2324046685552594</v>
+      </c>
+      <c r="E6">
+        <v>0.4820836738111542</v>
+      </c>
+      <c r="F6">
+        <v>0.4837575492784855</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.0456216727553122</v>
+      </c>
+      <c r="C7">
+        <v>0.2922602734454743</v>
+      </c>
+      <c r="D7">
+        <v>0.2129529838391156</v>
+      </c>
+      <c r="E7">
+        <v>0.4614682912607491</v>
+      </c>
+      <c r="F7">
+        <v>0.4649122906360681</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.06205420984744107</v>
+      </c>
+      <c r="C8">
+        <v>0.3172735968335578</v>
+      </c>
+      <c r="D8">
+        <v>0.2372328348309214</v>
+      </c>
+      <c r="E8">
+        <v>0.4870655344313755</v>
+      </c>
+      <c r="F8">
+        <v>0.4892507195032967</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.02741191578002685</v>
+      </c>
+      <c r="C9">
+        <v>0.2858839176817947</v>
+      </c>
+      <c r="D9">
+        <v>0.2084170500529116</v>
+      </c>
+      <c r="E9">
+        <v>0.4565271624480975</v>
+      </c>
+      <c r="F9">
+        <v>0.4616606135555081</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.0766170360123154</v>
+      </c>
+      <c r="C10">
+        <v>0.3047365331109669</v>
+      </c>
+      <c r="D10">
+        <v>0.2354196751261079</v>
+      </c>
+      <c r="E10">
+        <v>0.4852006544988454</v>
+      </c>
+      <c r="F10">
+        <v>0.4855445866161793</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.03643528935882931</v>
+      </c>
+      <c r="C11">
+        <v>0.2899730218976835</v>
+      </c>
+      <c r="D11">
+        <v>0.21909116812896</v>
+      </c>
+      <c r="E11">
+        <v>0.4680717553206559</v>
+      </c>
+      <c r="F11">
+        <v>0.4730883931758373</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.05196931671885517</v>
+        <v>0.04020811781310986</v>
       </c>
       <c r="C2">
-        <v>0.3991410673987694</v>
+        <v>0.4393778005513609</v>
       </c>
       <c r="D2">
-        <v>0.2869008173019949</v>
+        <v>0.4185873790753713</v>
       </c>
       <c r="E2">
-        <v>0.5356312325677013</v>
+        <v>0.6469832911871615</v>
       </c>
       <c r="F2">
-        <v>0.5389949565091068</v>
+        <v>0.6546397523846404</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0685104798962201</v>
+        <v>0.160380481824124</v>
       </c>
       <c r="C3">
-        <v>0.3405816180034244</v>
+        <v>0.4446889719503624</v>
       </c>
       <c r="D3">
-        <v>0.2647655185537202</v>
+        <v>0.3671874000978024</v>
       </c>
       <c r="E3">
-        <v>0.5145537081332912</v>
+        <v>0.6059598997440362</v>
       </c>
       <c r="F3">
-        <v>0.5157349669825785</v>
+        <v>0.5926395686446457</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07237991435715786</v>
+        <v>0.0501434945971165</v>
       </c>
       <c r="C4">
-        <v>0.3370837689345372</v>
+        <v>0.3866527438859454</v>
       </c>
       <c r="D4">
-        <v>0.229038519978335</v>
+        <v>0.2890951176385043</v>
       </c>
       <c r="E4">
-        <v>0.4785796903111696</v>
+        <v>0.537675662122161</v>
       </c>
       <c r="F4">
-        <v>0.4785439493058998</v>
+        <v>0.5431478556575458</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04585234341813907</v>
+        <v>0.1382408338576072</v>
       </c>
       <c r="C5">
-        <v>0.3032187278437861</v>
+        <v>0.4158547541469218</v>
       </c>
       <c r="D5">
-        <v>0.210527925762667</v>
+        <v>0.3100941732660757</v>
       </c>
       <c r="E5">
-        <v>0.4588332221653822</v>
+        <v>0.5568609999506841</v>
       </c>
       <c r="F5">
-        <v>0.4619393899566127</v>
+        <v>0.5475411686222322</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.06289069381529726</v>
+        <v>0.07560015670999451</v>
       </c>
       <c r="C6">
-        <v>0.3154316953120433</v>
+        <v>0.3691745166536125</v>
       </c>
       <c r="D6">
-        <v>0.2324046685552594</v>
+        <v>0.2747241333589515</v>
       </c>
       <c r="E6">
-        <v>0.4820836738111542</v>
+        <v>0.5241413295657493</v>
       </c>
       <c r="F6">
-        <v>0.4837575492784855</v>
+        <v>0.5267022622804913</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0456216727553122</v>
+        <v>0.1192491126694416</v>
       </c>
       <c r="C7">
-        <v>0.2922602734454743</v>
+        <v>0.4028315912834265</v>
       </c>
       <c r="D7">
-        <v>0.2129529838391156</v>
+        <v>0.3066657344777716</v>
       </c>
       <c r="E7">
-        <v>0.4614682912607491</v>
+        <v>0.5537740825262335</v>
       </c>
       <c r="F7">
-        <v>0.4649122906360681</v>
+        <v>0.5494352606605323</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06205420984744107</v>
+        <v>0.06922558777690588</v>
       </c>
       <c r="C8">
-        <v>0.3172735968335578</v>
+        <v>0.3586838391898814</v>
       </c>
       <c r="D8">
-        <v>0.2372328348309214</v>
+        <v>0.2714442011738066</v>
       </c>
       <c r="E8">
-        <v>0.4870655344313755</v>
+        <v>0.5210030721347108</v>
       </c>
       <c r="F8">
-        <v>0.4892507195032967</v>
+        <v>0.5249194412572022</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02741191578002685</v>
+        <v>0.1213405906861701</v>
       </c>
       <c r="C9">
-        <v>0.2858839176817947</v>
+        <v>0.4021618232026132</v>
       </c>
       <c r="D9">
-        <v>0.2084170500529116</v>
+        <v>0.3128306089004944</v>
       </c>
       <c r="E9">
-        <v>0.4565271624480975</v>
+        <v>0.55931262179616</v>
       </c>
       <c r="F9">
-        <v>0.4616606135555081</v>
+        <v>0.555325691904054</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0766170360123154</v>
+        <v>0.05688217204266421</v>
       </c>
       <c r="C10">
-        <v>0.3047365331109669</v>
+        <v>0.3510187655753705</v>
       </c>
       <c r="D10">
-        <v>0.2354196751261079</v>
+        <v>0.2692614985437906</v>
       </c>
       <c r="E10">
-        <v>0.4852006544988454</v>
+        <v>0.5189041323248357</v>
       </c>
       <c r="F10">
-        <v>0.4855445866161793</v>
+        <v>0.5249065084911203</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.03643528935882931</v>
+        <v>0.1375569543866749</v>
       </c>
       <c r="C11">
-        <v>0.2899730218976835</v>
+        <v>0.3880777724859489</v>
       </c>
       <c r="D11">
-        <v>0.21909116812896</v>
+        <v>0.3131151733558528</v>
       </c>
       <c r="E11">
-        <v>0.4680717553206559</v>
+        <v>0.5595669516294299</v>
       </c>
       <c r="F11">
-        <v>0.4730883931758373</v>
+        <v>0.5523488971977372</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.04020811781310986</v>
+        <v>-0.2062081610468891</v>
       </c>
       <c r="C2">
-        <v>0.4393778005513609</v>
+        <v>0.4981741733236962</v>
       </c>
       <c r="D2">
-        <v>0.4185873790753713</v>
+        <v>0.4649261630253289</v>
       </c>
       <c r="E2">
-        <v>0.6469832911871615</v>
+        <v>0.6818549428033274</v>
       </c>
       <c r="F2">
-        <v>0.6546397523846404</v>
+        <v>0.657108150032778</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.160380481824124</v>
+        <v>-0.09587357185906692</v>
       </c>
       <c r="C3">
-        <v>0.4446889719503624</v>
+        <v>0.5000820061429816</v>
       </c>
       <c r="D3">
-        <v>0.3671874000978024</v>
+        <v>0.4618601616711875</v>
       </c>
       <c r="E3">
-        <v>0.6059598997440362</v>
+        <v>0.6796029441307531</v>
       </c>
       <c r="F3">
-        <v>0.5926395686446457</v>
+        <v>0.6804089494737995</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.0501434945971165</v>
+        <v>-0.1372403718692351</v>
       </c>
       <c r="C4">
-        <v>0.3866527438859454</v>
+        <v>0.4340014692588762</v>
       </c>
       <c r="D4">
-        <v>0.2890951176385043</v>
+        <v>0.3663092181924378</v>
       </c>
       <c r="E4">
-        <v>0.537675662122161</v>
+        <v>0.6052348454876321</v>
       </c>
       <c r="F4">
-        <v>0.5431478556575458</v>
+        <v>0.5962844087863356</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1382408338576072</v>
+        <v>-0.08352607004722953</v>
       </c>
       <c r="C5">
-        <v>0.4158547541469218</v>
+        <v>0.471891385230405</v>
       </c>
       <c r="D5">
-        <v>0.3100941732660757</v>
+        <v>0.4001742410426709</v>
       </c>
       <c r="E5">
-        <v>0.5568609999506841</v>
+        <v>0.6325932666750974</v>
       </c>
       <c r="F5">
-        <v>0.5475411686222322</v>
+        <v>0.6344757561618594</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.07560015670999451</v>
+        <v>-0.1513393225090566</v>
       </c>
       <c r="C6">
-        <v>0.3691745166536125</v>
+        <v>0.4428429211668459</v>
       </c>
       <c r="D6">
-        <v>0.2747241333589515</v>
+        <v>0.3795138264528281</v>
       </c>
       <c r="E6">
-        <v>0.5241413295657493</v>
+        <v>0.616046935267783</v>
       </c>
       <c r="F6">
-        <v>0.5267022622804913</v>
+        <v>0.6044071860487836</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1192491126694416</v>
+        <v>-0.1148246166180287</v>
       </c>
       <c r="C7">
-        <v>0.4028315912834265</v>
+        <v>0.4704721399279175</v>
       </c>
       <c r="D7">
-        <v>0.3066657344777716</v>
+        <v>0.4088047900674556</v>
       </c>
       <c r="E7">
-        <v>0.5537740825262335</v>
+        <v>0.6393784404149514</v>
       </c>
       <c r="F7">
-        <v>0.5494352606605323</v>
+        <v>0.6367971418930269</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06922558777690588</v>
+        <v>-0.1576462645105448</v>
       </c>
       <c r="C8">
-        <v>0.3586838391898814</v>
+        <v>0.4410790206399262</v>
       </c>
       <c r="D8">
-        <v>0.2714442011738066</v>
+        <v>0.3843178504030022</v>
       </c>
       <c r="E8">
-        <v>0.5210030721347108</v>
+        <v>0.6199337467850917</v>
       </c>
       <c r="F8">
-        <v>0.5249194412572022</v>
+        <v>0.6071923665011824</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1213405906861701</v>
+        <v>-0.1265473388711615</v>
       </c>
       <c r="C9">
-        <v>0.4021618232026132</v>
+        <v>0.4734734975690142</v>
       </c>
       <c r="D9">
-        <v>0.3128306089004944</v>
+        <v>0.415038962515679</v>
       </c>
       <c r="E9">
-        <v>0.55931262179616</v>
+        <v>0.6442351764035235</v>
       </c>
       <c r="F9">
-        <v>0.555325691904054</v>
+        <v>0.6399417039254013</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.05688217204266421</v>
+        <v>-0.181494460453781</v>
       </c>
       <c r="C10">
-        <v>0.3510187655753705</v>
+        <v>0.4408424176267598</v>
       </c>
       <c r="D10">
-        <v>0.2692614985437906</v>
+        <v>0.3840813816712615</v>
       </c>
       <c r="E10">
-        <v>0.5189041323248357</v>
+        <v>0.6197429964681017</v>
       </c>
       <c r="F10">
-        <v>0.5249065084911203</v>
+        <v>0.6005259724977672</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1375569543866749</v>
+        <v>-0.1278002099571802</v>
       </c>
       <c r="C11">
-        <v>0.3880777724859489</v>
+        <v>0.4693678920889392</v>
       </c>
       <c r="D11">
-        <v>0.3131151733558528</v>
+        <v>0.4189108628417125</v>
       </c>
       <c r="E11">
-        <v>0.5595669516294299</v>
+        <v>0.6472332368178511</v>
       </c>
       <c r="F11">
-        <v>0.5523488971977372</v>
+        <v>0.6432423264545254</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/INVINV/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.1148246166180287</v>
+        <v>-0.1268670602450409</v>
       </c>
       <c r="C7">
-        <v>0.4704721399279175</v>
+        <v>0.4912998571971119</v>
       </c>
       <c r="D7">
-        <v>0.4088047900674556</v>
+        <v>0.4440863547471695</v>
       </c>
       <c r="E7">
-        <v>0.6393784404149514</v>
+        <v>0.6663980452756216</v>
       </c>
       <c r="F7">
-        <v>0.6367971418930269</v>
+        <v>0.6634903322751415</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1576462645105448</v>
+        <v>-0.1983642510587261</v>
       </c>
       <c r="C8">
-        <v>0.4410790206399262</v>
+        <v>0.4794362171649642</v>
       </c>
       <c r="D8">
-        <v>0.3843178504030022</v>
+        <v>0.4333623456850792</v>
       </c>
       <c r="E8">
-        <v>0.6199337467850917</v>
+        <v>0.6583026246986102</v>
       </c>
       <c r="F8">
-        <v>0.6071923665011824</v>
+        <v>0.6368693867280113</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1265473388711615</v>
+        <v>-0.2061622739680646</v>
       </c>
       <c r="C9">
-        <v>0.4734734975690142</v>
+        <v>0.5255257753659175</v>
       </c>
       <c r="D9">
-        <v>0.415038962515679</v>
+        <v>0.494714894569724</v>
       </c>
       <c r="E9">
-        <v>0.6442351764035235</v>
+        <v>0.7033597191833806</v>
       </c>
       <c r="F9">
-        <v>0.6399417039254013</v>
+        <v>0.689936695312686</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.181494460453781</v>
+        <v>-0.08791877842089156</v>
       </c>
       <c r="C10">
-        <v>0.4408424176267598</v>
+        <v>0.5688666216736536</v>
       </c>
       <c r="D10">
-        <v>0.3840813816712615</v>
+        <v>0.6389144850882613</v>
       </c>
       <c r="E10">
-        <v>0.6197429964681017</v>
+        <v>0.7993212652546292</v>
       </c>
       <c r="F10">
-        <v>0.6005259724977672</v>
+        <v>0.8269120295493002</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1278002099571802</v>
+        <v>-0.5284371888516474</v>
       </c>
       <c r="C11">
-        <v>0.4693678920889392</v>
+        <v>0.566781001591608</v>
       </c>
       <c r="D11">
-        <v>0.4189108628417125</v>
+        <v>0.5781463867675047</v>
       </c>
       <c r="E11">
-        <v>0.6472332368178511</v>
+        <v>0.7603593800088908</v>
       </c>
       <c r="F11">
-        <v>0.6432423264545254</v>
+        <v>0.6112492578789698</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
